--- a/data/trans_orig/CONS_ANS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Edad-trans_orig.xlsx
@@ -3728,12 +3728,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">

--- a/data/trans_orig/CONS_ANS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en País Vasco</t>
+          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Andalucia</t>
+          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en C.Valenciana</t>
+          <t>Consumo de ansiolíticos en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Barcelona</t>
+          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_ANS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1629</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>611</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2170</t>
+          <t>3544</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>489</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3114</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1213</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4084</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61976</t>
+          <t>75252</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60646</t>
+          <t>73337</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62525</t>
+          <t>76270</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61104</t>
+          <t>65018</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59379</t>
+          <t>63713</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61963</t>
+          <t>65753</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,15%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>123080</t>
+          <t>140271</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>121225</t>
+          <t>138148</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>124096</t>
+          <t>141639</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,74%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>787</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2507</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>949</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>400</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2214</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67834</t>
+          <t>73384</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66658</t>
+          <t>71944</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68558</t>
+          <t>74196</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,12%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61600</t>
+          <t>67099</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60522</t>
+          <t>66062</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62102</t>
+          <t>67648</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>129433</t>
+          <t>140483</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>127911</t>
+          <t>138946</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>130328</t>
+          <t>141546</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,0%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1247</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>518</t>
+          <t>772</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2411</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3875</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2494</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5873</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5121</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3571</t>
+          <t>3956</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>7396</t>
+          <t>8136</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93448</t>
+          <t>102195</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92284</t>
+          <t>100497</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94177</t>
+          <t>103188</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,68%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93630</t>
+          <t>106675</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91632</t>
+          <t>104524</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>95011</t>
+          <t>108196</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>187079</t>
+          <t>208870</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>184804</t>
+          <t>206539</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>188629</t>
+          <t>210719</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,34%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,16%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7600</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5445</t>
+          <t>4963</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10468</t>
+          <t>9377</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8633</t>
+          <t>8206</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>6169</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11694</t>
+          <t>11302</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>16233</t>
+          <t>15163</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>12897</t>
+          <t>12142</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>19951</t>
+          <t>18959</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>131814</t>
+          <t>137821</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>128946</t>
+          <t>135401</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>133969</t>
+          <t>139815</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>129342</t>
+          <t>144338</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>126281</t>
+          <t>141242</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>131575</t>
+          <t>146375</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>261157</t>
+          <t>282158</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>257439</t>
+          <t>278362</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>264493</t>
+          <t>285179</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,81%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7211</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4842</t>
+          <t>4511</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10040</t>
+          <t>8893</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10452</t>
+          <t>10506</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7884</t>
+          <t>8059</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13503</t>
+          <t>13764</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>17663</t>
+          <t>17005</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>14374</t>
+          <t>13812</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>22000</t>
+          <t>20787</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>119643</t>
+          <t>123083</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>116814</t>
+          <t>120689</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>122012</t>
+          <t>125071</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>136889</t>
+          <t>141409</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>133838</t>
+          <t>138151</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>139457</t>
+          <t>143856</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>256531</t>
+          <t>264493</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>252194</t>
+          <t>260711</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>259820</t>
+          <t>267686</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,56%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,09%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4694</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3217</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7119</t>
+          <t>6250</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9574</t>
+          <t>10888</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7454</t>
+          <t>8295</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12611</t>
+          <t>13955</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>14267</t>
+          <t>15065</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11383</t>
+          <t>12175</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>17735</t>
+          <t>18562</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,43%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>102910</t>
+          <t>100290</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>100485</t>
+          <t>98216</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>104387</t>
+          <t>101662</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>105334</t>
+          <t>104892</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>102297</t>
+          <t>101825</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>107454</t>
+          <t>107485</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>208245</t>
+          <t>205181</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>204777</t>
+          <t>201684</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>211129</t>
+          <t>208071</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>94,47%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9385</t>
+          <t>7635</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6608</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12351</t>
+          <t>9858</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>21474</t>
+          <t>20513</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>18153</t>
+          <t>17237</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>25671</t>
+          <t>24460</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>13,55%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>30859</t>
+          <t>28148</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>26412</t>
+          <t>24662</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>35720</t>
+          <t>32637</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>86970</t>
+          <t>81588</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>84004</t>
+          <t>79365</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>89747</t>
+          <t>83392</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,18%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>112457</t>
+          <t>111799</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>108260</t>
+          <t>107852</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>115778</t>
+          <t>115075</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>83,97%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,83%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>86,45%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>199427</t>
+          <t>193387</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>194566</t>
+          <t>188898</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>203874</t>
+          <t>196873</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>84,49%</t>
+          <t>85,27%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>88,87%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3137,32 +3137,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>32307</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>27199</t>
+          <t>26042</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37857</t>
+          <t>35193</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3172,32 +3172,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>56280</t>
+          <t>56326</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>50238</t>
+          <t>50426</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>63775</t>
+          <t>63068</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>88586</t>
+          <t>86586</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>80240</t>
+          <t>78541</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>97127</t>
+          <t>94593</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,22%</t>
         </is>
       </c>
     </row>
@@ -3250,32 +3250,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>664596</t>
+          <t>693612</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>659046</t>
+          <t>688679</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>669704</t>
+          <t>697830</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>700355</t>
+          <t>741230</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>692860</t>
+          <t>734488</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>706397</t>
+          <t>747130</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1364952</t>
+          <t>1434843</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1356411</t>
+          <t>1426836</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1373298</t>
+          <t>1442888</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,48%</t>
+          <t>94,84%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14775</t>
+          <t>16067</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3783,7 +3783,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>15081</t>
+          <t>12757</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,03%</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169578</t>
+          <t>168286</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,99%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>405508</t>
+          <t>407832</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -3926,7 +3926,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9220</t>
+          <t>9958</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2562</t>
+          <t>2785</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17009</t>
+          <t>16828</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3949</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>19491</t>
+          <t>19697</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,62%</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>220148</t>
+          <t>219410</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -4199,7 +4199,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>95,66%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>297419</t>
+          <t>297600</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>311866</t>
+          <t>311643</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>94,65%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>524305</t>
+          <t>524099</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>539847</t>
+          <t>539539</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>96,38%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,22%</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5372</t>
+          <t>5092</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18701</t>
+          <t>18200</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10340</t>
+          <t>10556</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23106</t>
+          <t>22656</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>17930</t>
+          <t>18205</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>36591</t>
+          <t>37403</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>5,91%</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>292068</t>
+          <t>292569</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>305397</t>
+          <t>305677</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>299507</t>
+          <t>299957</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>312273</t>
+          <t>312057</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,73%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>596790</t>
+          <t>595978</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>615451</t>
+          <t>615176</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,22%</t>
+          <t>94,09%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>97,13%</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10363</t>
+          <t>8833</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57569</t>
+          <t>56993</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22674</t>
+          <t>23247</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51249</t>
+          <t>51647</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>31025</t>
+          <t>29042</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>90635</t>
+          <t>91166</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,83%</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>569595</t>
+          <t>570171</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>616801</t>
+          <t>618331</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,35%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>353553</t>
+          <t>353155</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>382128</t>
+          <t>381555</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,34%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>941331</t>
+          <t>940800</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1000941</t>
+          <t>1002924</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>97,19%</t>
         </is>
       </c>
     </row>
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13528</t>
+          <t>13924</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>30177</t>
+          <t>31215</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31929</t>
+          <t>33235</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>51359</t>
+          <t>51792</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>52240</t>
+          <t>51203</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>77697</t>
+          <t>76357</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,61%</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>308952</t>
+          <t>307914</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>325601</t>
+          <t>325205</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>95,89%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>266917</t>
+          <t>266484</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>286347</t>
+          <t>285041</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>83,73%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,97%</t>
+          <t>89,56%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>579709</t>
+          <t>581049</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>605166</t>
+          <t>606203</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>88,39%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,05%</t>
+          <t>92,21%</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6263</t>
+          <t>6396</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16469</t>
+          <t>16779</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9571</t>
+          <t>8269</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>59189</t>
+          <t>61380</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17380</t>
+          <t>15777</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>63734</t>
+          <t>65361</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>191615</t>
+          <t>191305</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>201821</t>
+          <t>201688</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>96,99%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>393453</t>
+          <t>391262</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>443071</t>
+          <t>444373</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,92%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>596993</t>
+          <t>595366</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>643347</t>
+          <t>644950</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>97,61%</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10248</t>
+          <t>10584</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22043</t>
+          <t>22766</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>34472</t>
+          <t>34590</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>53383</t>
+          <t>52352</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,83%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>22,44%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>48555</t>
+          <t>48688</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>70252</t>
+          <t>70804</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>129242</t>
+          <t>128519</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>141037</t>
+          <t>140701</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5914,12 +5914,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>85,43%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>179890</t>
+          <t>180921</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>198801</t>
+          <t>198683</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>77,12%</t>
+          <t>77,56%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>314306</t>
+          <t>313754</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>336003</t>
+          <t>335870</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>81,73%</t>
+          <t>81,59%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>87,34%</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>61856</t>
+          <t>63018</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>116383</t>
+          <t>115550</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>127313</t>
+          <t>129880</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>206501</t>
+          <t>205311</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>211043</t>
+          <t>207822</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>311735</t>
+          <t>306834</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1985652</t>
+          <t>1986485</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2040179</t>
+          <t>2039017</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,46%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>97,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2023887</t>
+          <t>2025077</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2103075</t>
+          <t>2100508</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>90,79%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4020688</t>
+          <t>4025589</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4121380</t>
+          <t>4124601</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>833</t>
+          <t>910</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>859</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6398</t>
+          <t>6994</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8887</t>
+          <t>8978</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60453</t>
+          <t>60281</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63840</t>
+          <t>63763</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55142</t>
+          <t>54546</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>60682</t>
+          <t>60681</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,6%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>117327</t>
+          <t>117236</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123615</t>
+          <t>123806</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,94%</t>
+          <t>98,09%</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8504</t>
+          <t>9317</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7483</t>
+          <t>7967</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>5341</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>14217</t>
+          <t>13794</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>5,49%</t>
         </is>
       </c>
     </row>
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>114793</t>
+          <t>113980</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>121346</t>
+          <t>121200</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,42%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>120548</t>
+          <t>120064</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>126022</t>
+          <t>125942</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,43%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>237110</t>
+          <t>237533</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>246336</t>
+          <t>245986</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,34%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>97,87%</t>
         </is>
       </c>
     </row>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5143</t>
+          <t>5166</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15585</t>
+          <t>14624</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3480</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11512</t>
+          <t>11510</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9903</t>
+          <t>10337</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22283</t>
+          <t>22636</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>123217</t>
+          <t>124178</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>133659</t>
+          <t>133636</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>118621</t>
+          <t>118623</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>126653</t>
+          <t>126425</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>246652</t>
+          <t>246299</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>259032</t>
+          <t>258598</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5036</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13021</t>
+          <t>12743</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9618</t>
+          <t>9841</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23334</t>
+          <t>23886</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>16397</t>
+          <t>17007</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>31340</t>
+          <t>33617</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>14,17%</t>
         </is>
       </c>
     </row>
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>104630</t>
+          <t>104908</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112615</t>
+          <t>112684</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>88,93%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,72%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>96198</t>
+          <t>95646</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>109914</t>
+          <t>109691</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,48%</t>
+          <t>80,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>205843</t>
+          <t>203566</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>220786</t>
+          <t>220176</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,79%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>92,83%</t>
         </is>
       </c>
     </row>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5671</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13723</t>
+          <t>14663</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16308</t>
+          <t>15888</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31228</t>
+          <t>31145</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,08%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>24030</t>
+          <t>23478</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>41200</t>
+          <t>41719</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>19,51%</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>84290</t>
+          <t>83350</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>92342</t>
+          <t>92543</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>84632</t>
+          <t>84715</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>99552</t>
+          <t>99972</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>73,05%</t>
+          <t>73,12%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>85,92%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>172674</t>
+          <t>172155</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>189844</t>
+          <t>190396</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>80,74%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>89,02%</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3552</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14805</t>
+          <t>13916</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>21,42%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9605</t>
+          <t>9655</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>22068</t>
+          <t>20703</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>24,98%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15236</t>
+          <t>15186</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>29224</t>
+          <t>30299</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>19,24%</t>
         </is>
       </c>
     </row>
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>54297</t>
+          <t>55186</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>65550</t>
+          <t>65452</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>66292</t>
+          <t>67657</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>78755</t>
+          <t>78705</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>128238</t>
+          <t>127163</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>142226</t>
+          <t>142276</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>80,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>90,32%</t>
+          <t>90,36%</t>
         </is>
       </c>
     </row>
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5101</t>
+          <t>5319</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13008</t>
+          <t>13159</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>24161</t>
+          <t>23845</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>38931</t>
+          <t>38905</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,55%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>31191</t>
+          <t>30812</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>48132</t>
+          <t>49021</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>27,0%</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>55891</t>
+          <t>55740</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>63798</t>
+          <t>63580</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>81,12%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>73747</t>
+          <t>73773</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>88517</t>
+          <t>88833</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>65,45%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>133444</t>
+          <t>132555</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>150385</t>
+          <t>150764</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>73,49%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>83,03%</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>39101</t>
+          <t>39382</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>59127</t>
+          <t>60268</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>82235</t>
+          <t>81528</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>112561</t>
+          <t>111235</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>123972</t>
+          <t>126562</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>161127</t>
+          <t>161412</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,22%</t>
+          <t>11,24%</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>621311</t>
+          <t>620170</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>641337</t>
+          <t>641056</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,31%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>643572</t>
+          <t>644898</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>673898</t>
+          <t>674605</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>85,29%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>89,12%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1275444</t>
+          <t>1275159</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1312599</t>
+          <t>1310009</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>88,78%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>91,19%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_ANS-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CONS_ANS-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1629</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>2448</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2529</t>
+          <t>15506</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2448</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1484</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>12460</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>2,7%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75252</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73337</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>76270</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65018</t>
+          <t>217207</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63713</t>
+          <t>204149</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65753</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>140271</t>
+          <t>458472</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>138148</t>
+          <t>448460</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>141639</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,01%</t>
+          <t>99,47%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,37 +1074,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>2919</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>787</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>10581</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,67 +1114,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>949</t>
+          <t>8652</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>17375</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>2548</t>
+          <t>11571</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>5519</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>4085</t>
+          <t>21475</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73384</t>
+          <t>259055</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71944</t>
+          <t>251393</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>74196</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>242</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67099</t>
+          <t>274801</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>66062</t>
+          <t>266078</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>67648</t>
+          <t>279580</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,61%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>393</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>140483</t>
+          <t>533855</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>138946</t>
+          <t>523951</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>141546</t>
+          <t>539907</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>98,99%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1765</t>
+          <t>10577</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>4943</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3463</t>
+          <t>18311</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4040</t>
+          <t>17968</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>11703</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>25399</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>34</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>5805</t>
+          <t>28546</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3956</t>
+          <t>19463</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8136</t>
+          <t>39854</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102195</t>
+          <t>357741</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100497</t>
+          <t>350007</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103188</t>
+          <t>363375</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>98,66%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>469</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>106675</t>
+          <t>355417</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>104524</t>
+          <t>347986</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>108196</t>
+          <t>361682</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>772</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>208870</t>
+          <t>713157</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>206539</t>
+          <t>701849</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>210719</t>
+          <t>722240</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,3%</t>
+          <t>96,15%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>97,38%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6957</t>
+          <t>32401</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4963</t>
+          <t>22326</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9377</t>
+          <t>45117</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8206</t>
+          <t>29587</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6169</t>
+          <t>21999</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11302</t>
+          <t>39084</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>15163</t>
+          <t>61989</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>12142</t>
+          <t>49099</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>18959</t>
+          <t>79067</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>9,14%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>364</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>137821</t>
+          <t>391540</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>135401</t>
+          <t>378824</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139815</t>
+          <t>401615</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,52%</t>
+          <t>89,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,57%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>616</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>144338</t>
+          <t>411705</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>141242</t>
+          <t>402208</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>146375</t>
+          <t>419293</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>980</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>282158</t>
+          <t>803245</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>278362</t>
+          <t>786167</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>285179</t>
+          <t>816135</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>94,33%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6499</t>
+          <t>22565</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4511</t>
+          <t>14638</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8893</t>
+          <t>32631</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10506</t>
+          <t>46462</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>8059</t>
+          <t>37249</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>13764</t>
+          <t>56977</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>17005</t>
+          <t>69027</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>13812</t>
+          <t>56165</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>20787</t>
+          <t>83050</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>11,41%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>373</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>123083</t>
+          <t>345478</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>120689</t>
+          <t>335412</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>125071</t>
+          <t>353405</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>94,98%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>494</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>141409</t>
+          <t>313226</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>138151</t>
+          <t>302711</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>143856</t>
+          <t>322439</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>87,08%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>84,16%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>89,64%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>867</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>264493</t>
+          <t>658703</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>260711</t>
+          <t>644680</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>267686</t>
+          <t>671565</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,96%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>88,59%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>92,28%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>565</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>359688</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>359688</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>359688</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>727730</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>727730</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>727730</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4176</t>
+          <t>11401</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>6629</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6250</t>
+          <t>17905</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>60</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10888</t>
+          <t>34797</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8295</t>
+          <t>27467</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13955</t>
+          <t>43618</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>15065</t>
+          <t>46198</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>12175</t>
+          <t>37088</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>18562</t>
+          <t>57521</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>11,47%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>100290</t>
+          <t>219872</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>98216</t>
+          <t>213368</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>101662</t>
+          <t>224644</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,07%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>422</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>104892</t>
+          <t>235235</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>101825</t>
+          <t>226414</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>107485</t>
+          <t>242565</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>87,11%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>87,95%</t>
+          <t>83,85%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,84%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>722</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>205181</t>
+          <t>455106</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>201684</t>
+          <t>443783</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>208071</t>
+          <t>464216</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>92,6%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7635</t>
+          <t>17213</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5831</t>
+          <t>11648</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9858</t>
+          <t>24843</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11,05%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>20513</t>
+          <t>49213</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>17237</t>
+          <t>39500</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>24460</t>
+          <t>60094</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>19,2%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>103</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>28148</t>
+          <t>66426</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>24662</t>
+          <t>54863</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>32637</t>
+          <t>79979</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>506</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>81588</t>
+          <t>147873</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>79365</t>
+          <t>140243</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>83392</t>
+          <t>153438</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,44%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>88,95%</t>
+          <t>84,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>362</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>111799</t>
+          <t>207063</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>107852</t>
+          <t>196182</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>115075</t>
+          <t>216776</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>80,8%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,51%</t>
+          <t>76,55%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>84,59%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>567</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>193387</t>
+          <t>354936</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>188898</t>
+          <t>341383</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>196873</t>
+          <t>366499</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>87,29%</t>
+          <t>84,24%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>85,27%</t>
+          <t>81,02%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>86,98%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>440</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256276</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>670</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>421362</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3132,107 +3132,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>30260</t>
+          <t>97077</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>26042</t>
+          <t>80337</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>35193</t>
+          <t>118306</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>285</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>56326</t>
+          <t>189127</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>50426</t>
+          <t>168486</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>63068</t>
+          <t>213782</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>390</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>86586</t>
+          <t>286204</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>78541</t>
+          <t>255396</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>94593</t>
+          <t>313370</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>7,35%</t>
         </is>
       </c>
     </row>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>1790</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>693612</t>
+          <t>1962823</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>688679</t>
+          <t>1941594</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>697830</t>
+          <t>1979563</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,4%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4142</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>741230</t>
+          <t>2014654</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>734488</t>
+          <t>1989999</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>747130</t>
+          <t>2035295</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,94%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>90,3%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8042</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1434843</t>
+          <t>3977476</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1426836</t>
+          <t>3950310</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1442888</t>
+          <t>4008284</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>94,01%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1895</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2059900</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203781</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203781</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2203781</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4902</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4263680</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4263680</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4263680</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Andalucia (tasa de respuesta: 99,84%)</t>
+          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3718,107 +3718,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2185</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>910</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2839</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>859</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16067</t>
+          <t>6994</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>5024</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>12757</t>
+          <t>8978</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -3831,107 +3831,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>62488</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>60281</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>63763</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>96,62%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>181817</t>
+          <t>58701</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>168286</t>
+          <t>54546</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>60681</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>88,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,6%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>310</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>418053</t>
+          <t>121190</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>407832</t>
+          <t>117236</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>123806</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,09%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4061,107 +4061,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1757</t>
+          <t>4519</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9958</t>
+          <t>9317</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8254</t>
+          <t>4208</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2785</t>
+          <t>2089</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16828</t>
+          <t>7967</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>21</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>10011</t>
+          <t>8726</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>4257</t>
+          <t>5341</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>19697</t>
+          <t>13794</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>5,49%</t>
         </is>
       </c>
     </row>
@@ -4174,107 +4174,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>262</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>227611</t>
+          <t>118778</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>219410</t>
+          <t>113980</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>121200</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>96,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>92,44%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>274</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>306174</t>
+          <t>123823</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>297600</t>
+          <t>120064</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>311643</t>
+          <t>125942</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>536</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>533785</t>
+          <t>242601</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>524099</t>
+          <t>237533</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>539539</t>
+          <t>245986</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>98,16%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,38%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>97,87%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>271</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123297</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>286</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>128031</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>557</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251327</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4404,72 +4404,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10538</t>
+          <t>8555</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5092</t>
+          <t>5166</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18200</t>
+          <t>14624</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15917</t>
+          <t>6430</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10556</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22656</t>
+          <t>11510</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>8,84%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4479,32 +4479,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>26455</t>
+          <t>14984</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>18205</t>
+          <t>10337</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>37403</t>
+          <t>22636</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
@@ -4517,107 +4517,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>296</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>300231</t>
+          <t>130247</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>292569</t>
+          <t>124178</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>305677</t>
+          <t>133636</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>89,46%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>299</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>306696</t>
+          <t>123703</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>299957</t>
+          <t>118623</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>312057</t>
+          <t>126425</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,07%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>97,15%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>772</t>
+          <t>595</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>606926</t>
+          <t>253951</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>595978</t>
+          <t>246299</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>615176</t>
+          <t>258598</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>94,09%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>96,16%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>315</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>138802</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>138802</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>138802</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>314</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130133</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130133</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>130133</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>629</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>268935</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>268935</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>268935</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4747,107 +4747,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31236</t>
+          <t>8139</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8833</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>56993</t>
+          <t>12743</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,09%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>31964</t>
+          <t>15039</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23247</t>
+          <t>9841</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51647</t>
+          <t>23886</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>19,98%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>48</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>63200</t>
+          <t>23178</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>29042</t>
+          <t>17007</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>91166</t>
+          <t>33617</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>14,17%</t>
         </is>
       </c>
     </row>
@@ -4860,107 +4860,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>266</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>595928</t>
+          <t>109512</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>570171</t>
+          <t>104908</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>618331</t>
+          <t>112684</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>95,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>616</t>
+          <t>268</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>372838</t>
+          <t>104493</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>353155</t>
+          <t>95646</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>381555</t>
+          <t>109691</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>87,42%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>80,02%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>534</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>968766</t>
+          <t>214005</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>940800</t>
+          <t>203566</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1002924</t>
+          <t>220176</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,88%</t>
+          <t>90,23%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>91,17%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,19%</t>
+          <t>92,83%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5090,107 +5090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21704</t>
+          <t>9068</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>13924</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31215</t>
+          <t>14663</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>14,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>44</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>41462</t>
+          <t>22421</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33235</t>
+          <t>15888</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>51792</t>
+          <t>31145</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>26,88%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>65</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>63166</t>
+          <t>31489</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>51203</t>
+          <t>23478</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>76357</t>
+          <t>41719</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>14,72%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>11,61%</t>
+          <t>19,51%</t>
         </is>
       </c>
     </row>
@@ -5203,107 +5203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>317425</t>
+          <t>88945</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>307914</t>
+          <t>83350</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>325205</t>
+          <t>92543</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,6%</t>
+          <t>90,75%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>85,04%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>94,42%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>232</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>276814</t>
+          <t>93439</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>266484</t>
+          <t>84715</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>285041</t>
+          <t>99972</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>80,65%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>73,12%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>867</t>
+          <t>442</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>594240</t>
+          <t>182385</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>581049</t>
+          <t>172155</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>606203</t>
+          <t>190396</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>85,28%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>88,39%</t>
+          <t>80,49%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,21%</t>
+          <t>89,02%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318276</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318276</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318276</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>657406</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>657406</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>657406</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5433,107 +5433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10747</t>
+          <t>6826</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6396</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16779</t>
+          <t>13916</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>20,14%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30861</t>
+          <t>14073</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8269</t>
+          <t>9655</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>61380</t>
+          <t>20703</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>41608</t>
+          <t>20899</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15777</t>
+          <t>15186</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>65361</t>
+          <t>30299</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>13,27%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>19,24%</t>
         </is>
       </c>
     </row>
@@ -5546,107 +5546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>164</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>197337</t>
+          <t>62276</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>191305</t>
+          <t>55186</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>201688</t>
+          <t>65452</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>90,12%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>96,93%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>194</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>421781</t>
+          <t>74287</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>391262</t>
+          <t>67657</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>444373</t>
+          <t>78705</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>84,07%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>76,57%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>722</t>
+          <t>358</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>619119</t>
+          <t>136563</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>595366</t>
+          <t>127163</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>644950</t>
+          <t>142276</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>86,73%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>80,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>90,36%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>69102</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>407</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>157462</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5776,107 +5776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15856</t>
+          <t>8402</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10584</t>
+          <t>5319</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22766</t>
+          <t>13159</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,05%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>43052</t>
+          <t>30585</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>34590</t>
+          <t>23845</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>52352</t>
+          <t>38905</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>34,53%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>100</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>58907</t>
+          <t>38987</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>48688</t>
+          <t>30812</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>70804</t>
+          <t>49021</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>27,0%</t>
         </is>
       </c>
     </row>
@@ -5889,107 +5889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>135429</t>
+          <t>60497</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>128519</t>
+          <t>55740</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>140701</t>
+          <t>63580</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>87,81%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>84,95%</t>
+          <t>80,9%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>92,28%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>229</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>190221</t>
+          <t>82093</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>180921</t>
+          <t>73773</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>198683</t>
+          <t>88833</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>81,54%</t>
+          <t>72,86%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>77,56%</t>
+          <t>65,47%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>398</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>325651</t>
+          <t>142589</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>313754</t>
+          <t>132555</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>335870</t>
+          <t>150764</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>84,68%</t>
+          <t>78,53%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,34%</t>
+          <t>83,03%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>192</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>68899</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>68899</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151285</t>
+          <t>68899</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>306</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>112678</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>112678</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233273</t>
+          <t>112678</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>498</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>181576</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>181576</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>384558</t>
+          <t>181576</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6119,107 +6119,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>91838</t>
+          <t>47694</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>63018</t>
+          <t>39382</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>115550</t>
+          <t>60268</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>5,79%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>216</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>174046</t>
+          <t>95594</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>129880</t>
+          <t>81528</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>205311</t>
+          <t>111235</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,21%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>329</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>265883</t>
+          <t>143288</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>207822</t>
+          <t>126562</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>306834</t>
+          <t>161412</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>11,24%</t>
         </is>
       </c>
     </row>
@@ -6232,107 +6232,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>1523</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2010197</t>
+          <t>632744</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1986485</t>
+          <t>620170</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2039017</t>
+          <t>641056</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>92,99%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>91,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,0%</t>
+          <t>94,21%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>1650</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2056342</t>
+          <t>660539</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2025077</t>
+          <t>644898</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2100508</t>
+          <t>674605</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>87,36%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>90,79%</t>
+          <t>85,29%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>3173</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4066540</t>
+          <t>1293283</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4025589</t>
+          <t>1275159</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4124601</t>
+          <t>1310009</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>90,03%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>91,19%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1636</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>680438</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>680438</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102035</t>
+          <t>680438</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2230388</t>
+          <t>756133</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2230388</t>
+          <t>756133</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2230388</t>
+          <t>756133</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4902</t>
+          <t>3502</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4332423</t>
+          <t>1436571</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4332423</t>
+          <t>1436571</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4332423</t>
+          <t>1436571</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de ansiolíticos en Barcelona (tasa de respuesta: 99,72%)</t>
+          <t>Consumo de ansiolíticos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9692,107 +9692,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1629</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3544</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>2,12%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,61%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2185</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>910</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4392</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,79%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2839</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>489</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>6994</t>
+          <t>2529</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>5024</t>
+          <t>2852</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>1484</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8978</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>3,48%</t>
         </is>
       </c>
     </row>
@@ -9805,107 +9805,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62488</t>
+          <t>75252</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>60281</t>
+          <t>73337</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63763</t>
+          <t>76270</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,62%</t>
+          <t>97,88%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>341</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>58701</t>
+          <t>65018</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54546</t>
+          <t>63713</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>60681</t>
+          <t>65753</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>95,39%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,63%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>98,6%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>711</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>121190</t>
+          <t>140271</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>117236</t>
+          <t>138148</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123806</t>
+          <t>141639</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>96,02%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10035,107 +10035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4519</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>787</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9317</t>
+          <t>3039</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4208</t>
+          <t>949</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>400</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7967</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>8726</t>
+          <t>2548</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>5341</t>
+          <t>1485</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>13794</t>
+          <t>4085</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>2,86%</t>
         </is>
       </c>
     </row>
@@ -10148,107 +10148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>118778</t>
+          <t>73384</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>113980</t>
+          <t>71944</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>121200</t>
+          <t>74196</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>97,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>123823</t>
+          <t>67099</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>120064</t>
+          <t>66062</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>125942</t>
+          <t>67648</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>747</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>242601</t>
+          <t>140483</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>237533</t>
+          <t>138946</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>245986</t>
+          <t>141546</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,53%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>123297</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>128031</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>251327</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10378,107 +10378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8555</t>
+          <t>1765</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5166</t>
+          <t>772</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14624</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6430</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11510</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14984</t>
+          <t>5805</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10337</t>
+          <t>3956</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22636</t>
+          <t>8136</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -10491,107 +10491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>560</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>130247</t>
+          <t>102195</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>124178</t>
+          <t>100497</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>133636</t>
+          <t>103188</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>96,67%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>557</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>123703</t>
+          <t>106675</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>118623</t>
+          <t>104524</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>126425</t>
+          <t>108196</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,16%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>595</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>253951</t>
+          <t>208870</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>246299</t>
+          <t>206539</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>258598</t>
+          <t>210719</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>97,3%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>98,16%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>138802</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>138802</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>138802</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>130133</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>130133</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>130133</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>268935</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>268935</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>268935</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10721,107 +10721,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8139</t>
+          <t>6957</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>4963</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12743</t>
+          <t>9377</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15039</t>
+          <t>8206</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9841</t>
+          <t>6169</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23886</t>
+          <t>11302</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,58%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>88</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23178</t>
+          <t>15163</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>17007</t>
+          <t>12142</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>33617</t>
+          <t>18959</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>14,17%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -10834,107 +10834,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>763</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>109512</t>
+          <t>137821</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>104908</t>
+          <t>135401</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>112684</t>
+          <t>139815</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>96,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>764</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>104493</t>
+          <t>144338</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95646</t>
+          <t>141242</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>109691</t>
+          <t>146375</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>95,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>534</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>214005</t>
+          <t>282158</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>203566</t>
+          <t>278362</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>220176</t>
+          <t>285179</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>85,83%</t>
+          <t>93,62%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>95,92%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11064,107 +11064,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9068</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5470</t>
+          <t>4511</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14663</t>
+          <t>8893</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22421</t>
+          <t>10506</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15888</t>
+          <t>8059</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31145</t>
+          <t>13764</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>31489</t>
+          <t>17005</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>23478</t>
+          <t>13812</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>41719</t>
+          <t>20787</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>7,38%</t>
         </is>
       </c>
     </row>
@@ -11177,107 +11177,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>697</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>88945</t>
+          <t>123083</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>83350</t>
+          <t>120689</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>92543</t>
+          <t>125071</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,04%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>96,52%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>801</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>93439</t>
+          <t>141409</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>84715</t>
+          <t>138151</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>99972</t>
+          <t>143856</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>80,65%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>73,12%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>94,69%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>442</t>
+          <t>1498</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>182385</t>
+          <t>264493</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>172155</t>
+          <t>260711</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>190396</t>
+          <t>267686</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>80,49%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>95,09%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11407,107 +11407,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6826</t>
+          <t>4176</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3650</t>
+          <t>2804</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13916</t>
+          <t>6250</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14073</t>
+          <t>10888</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9655</t>
+          <t>8295</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>20703</t>
+          <t>13955</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>23,43%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>92</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>20899</t>
+          <t>15065</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15186</t>
+          <t>12175</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>30299</t>
+          <t>18562</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,24%</t>
+          <t>8,43%</t>
         </is>
       </c>
     </row>
@@ -11520,107 +11520,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>617</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>62276</t>
+          <t>100290</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>55186</t>
+          <t>98216</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>65452</t>
+          <t>101662</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>96,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>94,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>640</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>74287</t>
+          <t>104892</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>67657</t>
+          <t>101825</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>78705</t>
+          <t>107485</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>84,07%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>89,07%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>136563</t>
+          <t>205181</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>127163</t>
+          <t>201684</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>142276</t>
+          <t>208071</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>86,73%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,76%</t>
+          <t>91,57%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>94,47%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>69102</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>157462</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11750,107 +11750,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8402</t>
+          <t>7635</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>5319</t>
+          <t>5831</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>13159</t>
+          <t>9858</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>127</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>30585</t>
+          <t>20513</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>23845</t>
+          <t>17237</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>38905</t>
+          <t>24460</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>34,53%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>176</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>38987</t>
+          <t>28148</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>30812</t>
+          <t>24662</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>49021</t>
+          <t>32637</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,97%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -11863,107 +11863,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>60497</t>
+          <t>81588</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>55740</t>
+          <t>79365</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>63580</t>
+          <t>83392</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>87,81%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>679</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>82093</t>
+          <t>111799</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>73773</t>
+          <t>107852</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>88833</t>
+          <t>115075</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>65,47%</t>
+          <t>81,51%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>142589</t>
+          <t>193387</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>132555</t>
+          <t>188898</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>150764</t>
+          <t>196873</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>78,53%</t>
+          <t>87,29%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>73,0%</t>
+          <t>85,27%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>88,87%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>68899</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>68899</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>68899</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>112678</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>112678</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>112678</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>498</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>181576</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>181576</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>181576</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12093,107 +12093,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>47694</t>
+          <t>30260</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>39382</t>
+          <t>26042</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>60268</t>
+          <t>35193</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>95594</t>
+          <t>56326</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>81528</t>
+          <t>50426</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>111235</t>
+          <t>63068</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>6,32%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>511</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>143288</t>
+          <t>86586</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>126562</t>
+          <t>78541</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>161412</t>
+          <t>94593</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>5,69%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>6,22%</t>
         </is>
       </c>
     </row>
@@ -12206,107 +12206,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>632744</t>
+          <t>693612</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>620170</t>
+          <t>688679</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>641056</t>
+          <t>697830</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>91,14%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,21%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1650</t>
+          <t>4142</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>660539</t>
+          <t>741230</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>644898</t>
+          <t>734488</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>674605</t>
+          <t>747130</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>85,29%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>3173</t>
+          <t>8042</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1293283</t>
+          <t>1434843</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1275159</t>
+          <t>1426836</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1310009</t>
+          <t>1442888</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>94,84%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1636</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>680438</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>680438</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>680438</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756133</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756133</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756133</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1436571</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1436571</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1436571</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
